--- a/uploads/BIC_depot_report_2024-9-14151617.xlsx
+++ b/uploads/BIC_depot_report_2024-9-14151617.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\localhost\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A01B754-28F8-4154-B7DF-1C54EAA4CF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E8F84-8FAB-4DB4-B1A3-7D8308D407F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="move in" sheetId="1" r:id="rId1"/>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1450,7 +1450,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E510"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5839,7 +5839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/uploads/BIC_depot_report_2024-9-14151617.xlsx
+++ b/uploads/BIC_depot_report_2024-9-14151617.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\localhost\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E8F84-8FAB-4DB4-B1A3-7D8308D407F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A2B8A8-3E8C-489D-8749-B5F71EC6F171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="move in" sheetId="1" r:id="rId1"/>
     <sheet name="move out" sheetId="2" r:id="rId2"/>
     <sheet name="inventory" sheetId="3" r:id="rId3"/>
     <sheet name="Summary" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId5"/>
+    <sheet name="Лист2" sheetId="7" r:id="rId6"/>
+    <sheet name="Лист3" sheetId="8" r:id="rId7"/>
+    <sheet name="Лист4" sheetId="9" r:id="rId8"/>
+    <sheet name="Лист5" sheetId="10" r:id="rId9"/>
+    <sheet name="Лист6" sheetId="11" r:id="rId10"/>
+    <sheet name="Лист7" sheetId="12" r:id="rId11"/>
+    <sheet name="Лист8" sheetId="13" r:id="rId12"/>
+    <sheet name="Лист9" sheetId="14" r:id="rId13"/>
+    <sheet name="Лист10" sheetId="15" r:id="rId14"/>
+    <sheet name="Лист11" sheetId="16" r:id="rId15"/>
+    <sheet name="Лист12" sheetId="17" r:id="rId16"/>
+    <sheet name="Лист13" sheetId="18" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">inventory!$A$1:$E$37</definedName>
@@ -1445,6 +1458,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05785650-5085-4454-A4D0-64450FDA6982}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D2147F-BDDB-41B7-824E-AF2710B1CDEF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8215FF88-E7E9-4501-911E-D9F0ACDCD61F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECBF49-18ED-45CB-BA7F-C818F73D0E18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F33DEB4-730A-439C-B499-28EA74FA8CBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3856FDC-038C-4612-B26B-68724C6F1BC5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1882557-927C-4253-B3CA-2C98EB546077}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDDB16D-EBFA-43E7-9838-65B9382C4E38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
@@ -5839,7 +5948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -6023,6 +6132,66 @@
     <mergeCell ref="B4:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64EFFF-36B2-4911-A20B-F2F06B97CE9A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215DEFB8-366F-477F-BBEC-AE3B390527F7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C723DD96-C27B-4D6B-B4DB-89D2C8331442}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69AC5A-CE88-44A9-BAAC-5CC3AD090ECC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C96DBE-8E9C-4120-A27B-D4EC0C7B9BE0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
